--- a/medicine/Enfance/Affaire_René_Bissey/Affaire_René_Bissey.xlsx
+++ b/medicine/Enfance/Affaire_René_Bissey/Affaire_René_Bissey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Affaire_Ren%C3%A9_Bissey</t>
+          <t>Affaire_René_Bissey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'affaire René Bissey est une affaire judiciaire de mœurs mettant en cause le prêtre René Bissey condamné le 6 octobre 2000 à dix-huit ans de réclusion criminelle par la cour d'assises du Calvados pour avoir agressé sexuellement des enfants.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Affaire_Ren%C3%A9_Bissey</t>
+          <t>Affaire_René_Bissey</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alors qu’il est étudiant au séminaire, dans les années 1960, René Bissey explique à son directeur de conscience qu'il est attiré par les jeunes garçons[1].
-En décembre 1996, la mère d’une victime explique au père Michel Morcel, vicaire général du diocèse de Bayeux et Lisieux, le comportement du prêtre René Bissey qui a imposé à son fils des relations sexuelles[2].
-Les agressions sexuelles se sont déroulées entre 1987 et 1996 dans les paroisses du Chemin-Vert et de Vaucelles à Caen [3].
-Lors du procès, les experts psychiatriques décrivent le prêtre comme un « pervers sexuel », un « pédophile authentique », qui « ne souffre pas de l'anormalité de ses actes »[4]. À l’issue du procès, il est condamné à 18 ans de prison[5]. Pendant le procès, Bissey « a tout avoué » : viols sur un mineur, atteintes sexuelles sur trois mineurs et corruptions de sept autres mineurs[6].
-En août 2001, il décide de se désister de son appel devant une autre juridiction[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alors qu’il est étudiant au séminaire, dans les années 1960, René Bissey explique à son directeur de conscience qu'il est attiré par les jeunes garçons.
+En décembre 1996, la mère d’une victime explique au père Michel Morcel, vicaire général du diocèse de Bayeux et Lisieux, le comportement du prêtre René Bissey qui a imposé à son fils des relations sexuelles.
+Les agressions sexuelles se sont déroulées entre 1987 et 1996 dans les paroisses du Chemin-Vert et de Vaucelles à Caen .
+Lors du procès, les experts psychiatriques décrivent le prêtre comme un « pervers sexuel », un « pédophile authentique », qui « ne souffre pas de l'anormalité de ses actes ». À l’issue du procès, il est condamné à 18 ans de prison. Pendant le procès, Bissey « a tout avoué » : viols sur un mineur, atteintes sexuelles sur trois mineurs et corruptions de sept autres mineurs.
+En août 2001, il décide de se désister de son appel devant une autre juridiction.
 </t>
         </is>
       </c>
